--- a/BackTest/2019-11-21 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-21 BackTest ZIL.xlsx
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -18826,13 +18826,17 @@
         <v>8.070000000000011</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="K527" t="n">
+        <v>8.07</v>
+      </c>
       <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
@@ -18861,14 +18865,22 @@
         <v>8.155000000000012</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="K528" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18896,14 +18908,22 @@
         <v>8.010000000000012</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K529" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18931,14 +18951,22 @@
         <v>7.965000000000011</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K530" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -18966,14 +18994,22 @@
         <v>7.980000000000011</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K531" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19007,8 +19043,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19042,8 +19084,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19077,8 +19125,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19112,8 +19166,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19147,8 +19207,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19182,8 +19248,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19217,8 +19289,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19252,8 +19330,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19287,8 +19371,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +19412,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19357,8 +19453,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19392,8 +19494,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19427,8 +19535,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +19576,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19497,8 +19617,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19532,8 +19658,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19567,8 +19699,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19602,8 +19740,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19637,8 +19781,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19672,8 +19822,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19701,18 +19857,20 @@
         <v>7.79000000000001</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="L552" t="inlineStr"/>
+        <v>8.07</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19740,20 +19898,18 @@
         <v>7.79000000000001</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M553" t="n">
@@ -19783,20 +19939,18 @@
         <v>7.78000000000001</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M554" t="n">
@@ -19826,16 +19980,14 @@
         <v>7.775000000000011</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -19869,16 +20021,14 @@
         <v>7.775000000000011</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -19912,16 +20062,14 @@
         <v>7.77000000000001</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -19955,16 +20103,14 @@
         <v>7.910000000000011</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -19998,16 +20144,14 @@
         <v>8.050000000000011</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>8.050000000000001</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -20041,16 +20185,14 @@
         <v>8.025000000000011</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>8</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -20084,16 +20226,14 @@
         <v>7.900000000000011</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>7.81</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -20127,16 +20267,14 @@
         <v>7.795000000000011</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -20170,16 +20308,14 @@
         <v>7.740000000000011</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -20213,16 +20349,14 @@
         <v>7.675000000000011</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>7.69</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -20256,16 +20390,14 @@
         <v>7.68000000000001</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>7.69</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -20299,16 +20431,14 @@
         <v>7.705000000000011</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -20342,16 +20472,14 @@
         <v>7.710000000000012</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -20385,16 +20513,14 @@
         <v>7.710000000000012</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -20428,16 +20554,14 @@
         <v>7.750000000000011</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -20471,16 +20595,14 @@
         <v>7.795000000000011</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -20514,16 +20636,14 @@
         <v>7.800000000000011</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -20557,16 +20677,14 @@
         <v>7.85000000000001</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -20600,16 +20718,14 @@
         <v>7.89500000000001</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -20643,16 +20759,14 @@
         <v>7.89000000000001</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>7.89</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -20686,16 +20800,14 @@
         <v>7.88000000000001</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -20729,16 +20841,14 @@
         <v>7.785000000000009</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -20772,16 +20882,14 @@
         <v>7.785000000000009</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -20815,16 +20923,14 @@
         <v>7.955000000000009</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -20858,16 +20964,14 @@
         <v>8.070000000000009</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -20901,16 +21005,14 @@
         <v>8.125000000000011</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -20944,16 +21046,14 @@
         <v>8.275000000000009</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>8.15</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -20994,7 +21094,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -21035,7 +21135,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -21076,7 +21176,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -21117,7 +21217,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -21158,7 +21258,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -21199,7 +21299,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -21240,7 +21340,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -21281,7 +21381,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -21322,7 +21422,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -21363,7 +21463,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -21404,7 +21504,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -21445,7 +21545,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -21486,7 +21586,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -21527,7 +21627,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -21568,7 +21668,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -21609,7 +21709,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -21650,7 +21750,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -21691,7 +21791,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -21732,7 +21832,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -21773,7 +21873,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -21814,7 +21914,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -21855,7 +21955,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -21896,7 +21996,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -21937,7 +22037,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -21978,7 +22078,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -22019,7 +22119,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -22060,7 +22160,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -22101,7 +22201,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -22142,7 +22242,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -22183,7 +22283,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -22224,7 +22324,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -22265,7 +22365,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -22306,7 +22406,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -22347,7 +22447,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>

--- a/BackTest/2019-11-21 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-21 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1887424.3588959</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1887424.3588959</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1936936.3383959</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1936936.3383959</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1898908.5811959</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1887577.5878959</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -2596,11 +2596,17 @@
         <v>1233540.791957344</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8.16</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2635,17 @@
         <v>1202637.564957344</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8.25</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2678,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2711,17 @@
         <v>1155445.900857345</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2754,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2791,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2828,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2865,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2902,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2939,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +2976,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3013,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3050,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3087,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3124,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3161,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3198,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3235,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3272,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3309,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3346,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3383,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3420,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3457,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3494,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3531,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3568,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3605,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3642,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3679,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3716,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3753,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3790,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3827,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3864,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3901,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3938,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3975,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4012,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4049,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4086,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4123,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4160,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4197,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4234,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4271,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4308,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4345,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4382,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4419,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4456,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4489,15 @@
         <v>1692551.118157345</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4526,15 @@
         <v>1687510.055857345</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4563,15 @@
         <v>1699513.867157345</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4600,15 @@
         <v>1699513.867157345</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4641,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4674,15 @@
         <v>1699748.727357345</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4711,15 @@
         <v>1700591.618557345</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4752,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4789,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4826,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4863,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4896,15 @@
         <v>2050196.195757344</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4937,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4974,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5007,15 @@
         <v>1762529.211857344</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5044,15 @@
         <v>1761127.905157344</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5085,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5122,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5159,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5192,15 @@
         <v>1750111.905157344</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5233,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5270,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5303,15 @@
         <v>1671822.037257344</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5344,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5381,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5418,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5455,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5492,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5529,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5566,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5603,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5640,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5677,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5714,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5747,17 @@
         <v>1857536.403957345</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5786,17 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8.539999999999999</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5825,17 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>8.529999999999999</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5864,17 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8.529999999999999</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5907,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5944,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5981,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6018,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6051,15 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6092,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6129,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6166,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6203,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6240,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6277,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6314,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6351,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6388,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6425,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6462,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6499,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6536,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6573,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6610,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6647,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6684,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6721,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6758,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6795,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6832,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6869,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6906,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6943,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6980,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7017,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7054,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7091,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7128,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7165,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7202,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7239,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7276,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7313,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7350,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7387,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7424,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7461,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7498,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7535,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7572,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7609,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7646,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7683,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7720,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7757,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7794,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7831,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7868,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7905,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7942,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7979,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +8016,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +8053,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8090,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8127,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8164,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8201,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8238,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8275,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8312,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8349,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8386,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8423,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8460,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8497,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8534,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8571,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8608,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8645,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8682,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8719,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8756,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8793,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8830,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8867,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8900,15 @@
         <v>3102634.577738953</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8937,15 @@
         <v>3045224.470638953</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8974,15 @@
         <v>3045224.470638953</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +9011,15 @@
         <v>3045224.470638953</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +9048,15 @@
         <v>3116014.202538953</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +9089,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +9122,15 @@
         <v>2883730.820577508</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +9159,15 @@
         <v>2899646.241877508</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +9196,15 @@
         <v>2897905.900577508</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +9233,15 @@
         <v>2891401.372677508</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9270,15 @@
         <v>3342608.757377508</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +9307,15 @@
         <v>3342608.757377508</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +9344,15 @@
         <v>3335618.403477508</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +9381,15 @@
         <v>3335706.403477508</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +9418,15 @@
         <v>3251104.653977508</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +9455,15 @@
         <v>3413758.280977508</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9492,15 @@
         <v>3386316.467577508</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9529,15 @@
         <v>3390414.467577508</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9570,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9607,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9644,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9677,15 @@
         <v>6215276.245756638</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9714,15 @@
         <v>5844985.359456638</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9751,15 @@
         <v>6014231.847056638</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9788,15 @@
         <v>5820946.936556637</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9825,15 @@
         <v>5792003.834456638</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9862,15 @@
         <v>5788614.679256638</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9899,15 @@
         <v>5644715.992356637</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9940,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9977,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +10014,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +10051,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +10088,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10125,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10162,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10199,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10236,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,14 +10269,16 @@
         <v>6172008.672914454</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
@@ -9460,7 +10304,7 @@
         <v>6157201.961614454</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +10337,7 @@
         <v>6030469.615414455</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +10370,7 @@
         <v>6135823.618514455</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +10403,7 @@
         <v>6035823.002814455</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +10436,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +10469,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +10502,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +10535,7 @@
         <v>6073505.976414454</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +10568,7 @@
         <v>5720684.045014454</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +10601,7 @@
         <v>5574675.291014454</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +10634,7 @@
         <v>5946723.334414454</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10667,7 @@
         <v>6094600.982314454</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10700,7 @@
         <v>5859727.555814454</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10733,7 @@
         <v>5738681.927114454</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10766,7 @@
         <v>5738768.753614455</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10799,7 @@
         <v>5730423.400014454</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10832,7 @@
         <v>5625983.545514454</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10865,7 @@
         <v>5722845.454361208</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10898,7 @@
         <v>5719105.460161208</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10931,7 @@
         <v>5451430.123761208</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10964,7 @@
         <v>5451430.123761208</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10997,7 @@
         <v>5450430.123761208</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +11030,7 @@
         <v>5297981.120361208</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +11063,7 @@
         <v>5309564.451261208</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +11096,7 @@
         <v>5331937.482261209</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +11129,7 @@
         <v>5329683.145561209</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +11162,7 @@
         <v>5320310.533961209</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +11195,7 @@
         <v>5284236.882061209</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +11228,7 @@
         <v>5284236.882061209</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +11261,7 @@
         <v>5284236.882061209</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +11294,7 @@
         <v>5402700.035461209</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +11327,7 @@
         <v>5313954.923461209</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +11360,7 @@
         <v>5376281.464261209</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +11393,7 @@
         <v>5416057.953061209</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +11426,7 @@
         <v>5418457.070161209</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +11459,7 @@
         <v>5419504.706261209</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +11492,7 @@
         <v>5419504.706261209</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +11525,7 @@
         <v>5327191.79096121</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10813,7 +11657,7 @@
         <v>5508930.438061209</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11690,7 @@
         <v>5501239.90766121</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11723,7 @@
         <v>5501239.90766121</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11756,7 @@
         <v>5360256.285661209</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11789,7 @@
         <v>5470219.576361209</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11822,7 @@
         <v>5470219.576361209</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11077,7 +11921,7 @@
         <v>5403245.026561209</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12430,7 +13274,7 @@
         <v>5336428.385821444</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +13307,7 @@
         <v>7076093.514221444</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12529,7 +13373,7 @@
         <v>7064169.441821444</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +13406,7 @@
         <v>7064241.620721444</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +13439,7 @@
         <v>7067699.647221443</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13472,7 @@
         <v>7454407.188821443</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13505,7 @@
         <v>8759870.286582099</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +13538,7 @@
         <v>9058828.779082099</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +13571,7 @@
         <v>8965033.861182099</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13604,7 @@
         <v>8560946.734082099</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13637,7 @@
         <v>8596072.356082099</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +13670,7 @@
         <v>8585407.244182099</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13703,7 @@
         <v>8598424.890382098</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13736,7 @@
         <v>8438451.342882099</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12958,7 +13802,7 @@
         <v>7337294.117882099</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13684,7 +14528,7 @@
         <v>6942377.7567821</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14080,7 +14924,7 @@
         <v>5946941.689482099</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14146,7 +14990,7 @@
         <v>5955617.265182099</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14377,7 +15221,7 @@
         <v>9987501.330182098</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +15254,7 @@
         <v>8901607.175182099</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +15287,7 @@
         <v>8700565.925282098</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +15320,7 @@
         <v>8363028.788782098</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14839,7 +15683,7 @@
         <v>8302774.429379382</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +15749,7 @@
         <v>8107920.226279383</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +15782,7 @@
         <v>8203309.818379383</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +15815,7 @@
         <v>8203409.818379383</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15848,7 @@
         <v>8197104.589279382</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15881,7 @@
         <v>8477674.615179382</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15914,7 @@
         <v>8470984.042279383</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15947,7 @@
         <v>8941384.636679383</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15980,7 @@
         <v>8941384.636679383</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +16013,7 @@
         <v>8818411.559679383</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +16046,7 @@
         <v>8859554.283679383</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +16079,7 @@
         <v>8859494.283679383</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15301,7 +16145,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +16178,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +16211,7 @@
         <v>8874437.781279383</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +16244,7 @@
         <v>8880521.058779383</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15532,7 +16376,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +16409,7 @@
         <v>9292737.153079383</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +16442,7 @@
         <v>9301294.849879382</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +16475,7 @@
         <v>9120394.849879382</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +16508,7 @@
         <v>9009259.851679383</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +16541,7 @@
         <v>8959914.843679383</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +16574,7 @@
         <v>8922983.186879383</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +16607,7 @@
         <v>8926673.186879383</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +16640,7 @@
         <v>9170866.918179384</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +16673,7 @@
         <v>9161993.435779383</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +16706,7 @@
         <v>9154894.861379383</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +16739,7 @@
         <v>8858749.440779382</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +16772,7 @@
         <v>8925769.042479383</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +16805,7 @@
         <v>8885343.286079383</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +16838,7 @@
         <v>8295785.702079383</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16871,7 @@
         <v>8177339.141879383</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16904,7 @@
         <v>7969282.461679382</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16937,7 @@
         <v>7975492.461679382</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16970,7 @@
         <v>7575115.681679382</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +17003,7 @@
         <v>7414435.657779382</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +17036,7 @@
         <v>7339729.481479381</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +17069,7 @@
         <v>6798150.232179381</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +17102,7 @@
         <v>6836568.84757938</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +17135,7 @@
         <v>6836568.84757938</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +17168,7 @@
         <v>5676272.09157938</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +17201,7 @@
         <v>5733655.11477938</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +17234,7 @@
         <v>5752516.65067938</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +17267,7 @@
         <v>5752516.65067938</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +17300,7 @@
         <v>5941923.32887938</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +17333,7 @@
         <v>5942923.32887938</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +17366,7 @@
         <v>5522291.17107938</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +17399,7 @@
         <v>5393118.466679379</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +17432,7 @@
         <v>5189443.02247938</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +17465,7 @@
         <v>5189443.02247938</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +17498,7 @@
         <v>5171404.59587938</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +17531,7 @@
         <v>5171404.59587938</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +17564,7 @@
         <v>5295461.14617938</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +17597,7 @@
         <v>5269683.82427938</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +17630,7 @@
         <v>5372569.590314695</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +17663,7 @@
         <v>5372569.590314695</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +17696,7 @@
         <v>5372369.590314695</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +17729,7 @@
         <v>5387369.590314695</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +17762,7 @@
         <v>5387369.590314695</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +17795,7 @@
         <v>5482013.003950009</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +17828,7 @@
         <v>5482013.003950009</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17861,7 @@
         <v>5425872.568450009</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17894,7 @@
         <v>5385446.812050009</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17927,7 @@
         <v>5403093.24385001</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17960,7 @@
         <v>5403093.24385001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17993,7 @@
         <v>5403593.24385001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +18026,7 @@
         <v>5402105.57585001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +18059,7 @@
         <v>5514390.66255001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +18092,7 @@
         <v>5514390.66255001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +18125,7 @@
         <v>5514390.66255001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19657,10 +20501,14 @@
         <v>1834430.994250011</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J584" t="n">
+        <v>7.83</v>
+      </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
@@ -19690,11 +20538,19 @@
         <v>1871379.105850011</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="J585" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +20579,19 @@
         <v>1871379.105850011</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="J586" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +20620,19 @@
         <v>2067873.773198312</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="J587" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19792,8 +20664,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +20700,19 @@
         <v>2067865.773198312</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J589" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19858,8 +20744,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19891,8 +20783,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20822,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +20861,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20900,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20939,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20978,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +21017,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +21056,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +21095,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +21134,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +21173,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +21212,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +21251,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +21290,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +21329,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +21365,19 @@
         <v>1728271.304498312</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J606" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +21409,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +21448,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +21487,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +21526,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +21565,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +21604,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +21643,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +21679,19 @@
         <v>1782352.805098312</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J614" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +21720,19 @@
         <v>1730529.995098311</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J615" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +21761,19 @@
         <v>1730529.995098311</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J616" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +21802,19 @@
         <v>1736924.333498311</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J617" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21843,19 @@
         <v>1736924.333498311</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J618" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21887,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21926,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21965,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20914,8 +22004,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +22040,19 @@
         <v>1141687.937798311</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="J623" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +22081,19 @@
         <v>1364824.428898311</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="J624" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +22122,19 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J625" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,15 +22163,19 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>7.71</v>
       </c>
       <c r="J626" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="K626" t="inlineStr"/>
+        <v>7.83</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,17 +22204,17 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>7.71</v>
       </c>
       <c r="J627" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L627" t="n">
@@ -21121,17 +22245,17 @@
         <v>1489383.989698312</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>7.71</v>
       </c>
       <c r="J628" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L628" t="n">
@@ -21162,17 +22286,17 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>7.79</v>
       </c>
       <c r="J629" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L629" t="n">
@@ -21203,13 +22327,13 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>7.8</v>
       </c>
       <c r="J630" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21244,13 +22368,13 @@
         <v>1546714.89146344</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>7.8</v>
       </c>
       <c r="J631" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21285,13 +22409,13 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>7.9</v>
       </c>
       <c r="J632" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21326,13 +22450,13 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>7.89</v>
       </c>
       <c r="J633" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21367,13 +22491,13 @@
         <v>954582.6477634397</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>7.89</v>
       </c>
       <c r="J634" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21408,13 +22532,13 @@
         <v>934563.5341634396</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>7.87</v>
       </c>
       <c r="J635" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21449,13 +22573,13 @@
         <v>934634.5345634397</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>7.7</v>
       </c>
       <c r="J636" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21490,13 +22614,13 @@
         <v>1058069.460698311</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>7.87</v>
       </c>
       <c r="J637" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21531,13 +22655,13 @@
         <v>1103624.460698311</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>8.039999999999999</v>
       </c>
       <c r="J638" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21572,11 +22696,13 @@
         <v>1126546.460698311</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J639" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21615,7 +22741,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21650,11 +22776,13 @@
         <v>1286377.503598311</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>8.4</v>
+      </c>
       <c r="J641" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21693,7 +22821,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21732,7 +22860,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21771,7 +22899,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21810,7 +22938,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21849,7 +22977,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21888,7 +23016,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -21927,7 +23055,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -21966,7 +23094,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22005,7 +23133,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22044,7 +23172,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22083,7 +23211,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22118,13 +23246,13 @@
         <v>901027.4774983112</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>8.23</v>
       </c>
       <c r="J653" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22159,11 +23287,13 @@
         <v>897233.0324983113</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>8.210000000000001</v>
+      </c>
       <c r="J654" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22198,11 +23328,13 @@
         <v>892480.0324983113</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>8.18</v>
+      </c>
       <c r="J655" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22237,11 +23369,13 @@
         <v>971884.3411983112</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>8.119999999999999</v>
+      </c>
       <c r="J656" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22276,11 +23410,13 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>8.15</v>
+      </c>
       <c r="J657" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22315,11 +23451,13 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>8.199999999999999</v>
+      </c>
       <c r="J658" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22354,11 +23492,13 @@
         <v>1095087.482798311</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>8.199999999999999</v>
+      </c>
       <c r="J659" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22393,11 +23533,13 @@
         <v>1095752.583298311</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>8.210000000000001</v>
+      </c>
       <c r="J660" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22432,11 +23574,13 @@
         <v>1092503.807398311</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>8.23</v>
+      </c>
       <c r="J661" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22471,11 +23615,13 @@
         <v>915582.1268983111</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>8.199999999999999</v>
+      </c>
       <c r="J662" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22510,11 +23656,13 @@
         <v>916637.1462983111</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>7.96</v>
+      </c>
       <c r="J663" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22549,11 +23697,13 @@
         <v>750807.6635983111</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J664" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22588,11 +23738,13 @@
         <v>750878.7633983111</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>7.89</v>
+      </c>
       <c r="J665" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22627,11 +23779,13 @@
         <v>751708.7633983111</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>8.09</v>
+      </c>
       <c r="J666" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22666,11 +23820,13 @@
         <v>643944.6105983111</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J667" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22705,11 +23861,13 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>7.87</v>
+      </c>
       <c r="J668" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22744,11 +23902,13 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>8.08</v>
+      </c>
       <c r="J669" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22783,11 +23943,13 @@
         <v>643831.7217983111</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>8.08</v>
+      </c>
       <c r="J670" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22822,11 +23984,13 @@
         <v>657145.8248983111</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>8.06</v>
+      </c>
       <c r="J671" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -22861,11 +24025,13 @@
         <v>615074.075998311</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>8.109999999999999</v>
+      </c>
       <c r="J672" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -22900,11 +24066,13 @@
         <v>615074.075998311</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J673" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -22939,11 +24107,13 @@
         <v>721494.711098311</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J674" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -22978,11 +24148,13 @@
         <v>721494.711098311</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J675" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23017,11 +24189,13 @@
         <v>721494.711098311</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J676" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23056,11 +24230,13 @@
         <v>721294.210898311</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J677" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23095,11 +24271,13 @@
         <v>721294.210898311</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="J678" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23134,11 +24312,13 @@
         <v>688642.6166983109</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="J679" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23173,11 +24353,13 @@
         <v>689342.9868983109</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>7.96</v>
+      </c>
       <c r="J680" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23212,11 +24394,13 @@
         <v>692609.4832983109</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J681" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23251,11 +24435,13 @@
         <v>692451.7982983108</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J682" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23290,11 +24476,13 @@
         <v>525290.2292983108</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J683" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23329,11 +24517,13 @@
         <v>525150.2292983108</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="J684" t="n">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23346,6 +24536,6 @@
       <c r="M684" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-21 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2563,10 +2563,14 @@
         <v>1233475.791957344</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2601,7 +2605,9 @@
       <c r="I67" t="n">
         <v>8.16</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2640,7 +2646,9 @@
       <c r="I68" t="n">
         <v>8.25</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,10 +2682,14 @@
         <v>1155380.900857345</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2716,7 +2728,9 @@
       <c r="I70" t="n">
         <v>8.1</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,7 +2767,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,10 +2803,14 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2824,10 +2844,14 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,7 +2888,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,7 +2927,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2938,7 +2966,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2975,7 +3005,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,7 +3044,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3049,7 +3083,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,7 +3122,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3123,7 +3161,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,7 +3200,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3197,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,7 +3278,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,7 +3317,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,7 +3356,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3345,7 +3395,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,7 +3434,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,7 +3473,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3456,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,7 +3590,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3567,7 +3629,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,7 +3668,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,7 +3707,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,7 +3746,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3715,7 +3785,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,7 +3824,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3789,7 +3863,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,7 +3902,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,7 +3941,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3900,7 +3980,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3937,7 +4019,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3974,7 +4058,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4011,7 +4097,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4048,7 +4136,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,7 +4175,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4122,7 +4214,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,7 +4253,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4196,7 +4292,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,7 +4331,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,7 +4370,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,7 +4409,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4344,7 +4448,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,7 +4487,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,7 +4526,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,7 +4565,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,7 +4604,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,7 +4643,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,7 +4682,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,7 +4721,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,7 +4760,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,7 +4799,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,7 +4838,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,7 +4877,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,7 +4916,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,7 +4955,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,7 +4994,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,7 +5033,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,7 +5072,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,7 +5111,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,7 +5150,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,7 +5189,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,7 +5228,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5121,7 +5267,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5158,7 +5306,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,7 +5345,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,7 +5384,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,7 +5423,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,7 +5462,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5340,17 +5498,19 @@
         <v>1674791.513257344</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>1.049545454545455</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5377,15 +5537,11 @@
         <v>1671578.569557344</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5574,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5607,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5640,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5529,11 +5673,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5706,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5603,11 +5739,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +5772,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5677,11 +5805,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5714,11 +5838,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5747,17 +5867,11 @@
         <v>1857536.403957345</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>8.789999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5786,17 +5900,11 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>8.539999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5825,17 +5933,11 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>8.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5864,17 +5966,11 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>8.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5907,11 +6003,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5944,11 +6036,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5981,11 +6069,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6014,15 +6098,11 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6051,15 +6131,11 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6088,15 +6164,11 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6125,15 +6197,11 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6162,15 +6230,11 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6199,15 +6263,11 @@
         <v>1769502.036857344</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6240,11 +6300,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +6333,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6366,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6351,11 +6399,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +6432,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6465,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6498,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6531,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6536,11 +6564,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6597,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6630,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6663,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6696,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6729,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6758,11 +6762,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6795,11 +6795,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6828,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6861,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +6894,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +6927,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6980,11 +6960,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6993,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +7026,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +7059,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7128,11 +7092,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7165,11 +7125,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7202,11 +7158,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7239,11 +7191,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7276,11 +7224,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +7257,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7350,11 +7290,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +7323,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7424,11 +7356,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7461,11 +7389,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7498,11 +7422,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7535,11 +7455,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +7488,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7609,11 +7521,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7646,11 +7554,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7587,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7720,11 +7620,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7757,11 +7653,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7686,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7831,11 +7719,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +7752,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7785,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7818,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7979,11 +7851,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8016,11 +7884,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +7917,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +7950,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8127,11 +7983,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +8016,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8201,11 +8049,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +8082,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8115,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8312,11 +8148,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +8181,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8386,11 +8214,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8423,11 +8247,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8460,11 +8280,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +8313,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8534,11 +8346,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8571,11 +8379,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8608,11 +8412,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8445,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8682,11 +8478,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +8511,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8756,11 +8544,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8793,11 +8577,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8830,11 +8610,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8867,11 +8643,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +8676,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8941,11 +8709,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8978,11 +8742,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9015,11 +8775,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9052,11 +8808,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +8841,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9126,11 +8874,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +8907,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9200,11 +8940,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9237,11 +8973,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9274,11 +9006,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9311,11 +9039,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9348,11 +9072,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +9105,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9138,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9459,11 +9171,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +9204,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +9237,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +9270,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +9303,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9336,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9681,11 +9369,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9718,11 +9402,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9755,11 +9435,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9792,11 +9468,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +9501,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9866,11 +9534,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +9567,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +9600,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9977,11 +9633,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10014,11 +9666,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9699,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10088,11 +9732,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10125,11 +9765,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10162,11 +9798,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +9831,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10236,11 +9864,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10269,16 +9893,14 @@
         <v>6172008.672914454</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
       <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
@@ -10304,7 +9926,7 @@
         <v>6157201.961614454</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10337,7 +9959,7 @@
         <v>6030469.615414455</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10370,7 +9992,7 @@
         <v>6135823.618514455</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10403,7 +10025,7 @@
         <v>6035823.002814455</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10436,7 +10058,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10469,7 +10091,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10502,7 +10124,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10535,7 +10157,7 @@
         <v>6073505.976414454</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10568,7 +10190,7 @@
         <v>5720684.045014454</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10601,7 +10223,7 @@
         <v>5574675.291014454</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10634,7 +10256,7 @@
         <v>5946723.334414454</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10667,7 +10289,7 @@
         <v>6094600.982314454</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10700,7 +10322,7 @@
         <v>5859727.555814454</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10733,7 +10355,7 @@
         <v>5738681.927114454</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10766,7 +10388,7 @@
         <v>5738768.753614455</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10799,7 +10421,7 @@
         <v>5730423.400014454</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10832,7 +10454,7 @@
         <v>5625983.545514454</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10865,7 +10487,7 @@
         <v>5722845.454361208</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10898,7 +10520,7 @@
         <v>5719105.460161208</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10931,7 +10553,7 @@
         <v>5451430.123761208</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10964,7 +10586,7 @@
         <v>5451430.123761208</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10997,7 +10619,7 @@
         <v>5450430.123761208</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11030,7 +10652,7 @@
         <v>5297981.120361208</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11063,7 +10685,7 @@
         <v>5309564.451261208</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11096,7 +10718,7 @@
         <v>5331937.482261209</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11129,7 +10751,7 @@
         <v>5329683.145561209</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11162,7 +10784,7 @@
         <v>5320310.533961209</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11195,7 +10817,7 @@
         <v>5284236.882061209</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11228,7 +10850,7 @@
         <v>5284236.882061209</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11294,7 +10916,7 @@
         <v>5402700.035461209</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11327,7 +10949,7 @@
         <v>5313954.923461209</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -13472,7 +13094,7 @@
         <v>7454407.188821443</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13604,7 +13226,7 @@
         <v>8560946.734082099</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13637,7 +13259,7 @@
         <v>8596072.356082099</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13670,7 +13292,7 @@
         <v>8585407.244182099</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13736,7 +13358,7 @@
         <v>8438451.342882099</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13769,7 +13391,7 @@
         <v>7457659.515482099</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13802,7 +13424,7 @@
         <v>7337294.117882099</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13835,7 +13457,7 @@
         <v>7332665.417982099</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14000,7 +13622,7 @@
         <v>7046638.867882099</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14132,7 +13754,7 @@
         <v>7142438.0018821</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14231,7 +13853,7 @@
         <v>7142288.0336821</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14264,7 +13886,7 @@
         <v>7197036.4336821</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14528,7 +14150,7 @@
         <v>6942377.7567821</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14924,7 +14546,7 @@
         <v>5946941.689482099</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14990,7 +14612,7 @@
         <v>5955617.265182099</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15749,7 +15371,7 @@
         <v>8107920.226279383</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15782,7 +15404,7 @@
         <v>8203309.818379383</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15815,7 +15437,7 @@
         <v>8203409.818379383</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15848,7 +15470,7 @@
         <v>8197104.589279382</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15914,7 +15536,7 @@
         <v>8470984.042279383</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15947,7 +15569,7 @@
         <v>8941384.636679383</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15980,7 +15602,7 @@
         <v>8941384.636679383</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16046,7 +15668,7 @@
         <v>8859554.283679383</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16079,7 +15701,7 @@
         <v>8859494.283679383</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16145,7 +15767,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16178,7 +15800,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16211,7 +15833,7 @@
         <v>8874437.781279383</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16244,7 +15866,7 @@
         <v>8880521.058779383</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16343,7 +15965,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16409,7 +16031,7 @@
         <v>9292737.153079383</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16442,7 +16064,7 @@
         <v>9301294.849879382</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16475,7 +16097,7 @@
         <v>9120394.849879382</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16508,7 +16130,7 @@
         <v>9009259.851679383</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16541,7 +16163,7 @@
         <v>8959914.843679383</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16574,7 +16196,7 @@
         <v>8922983.186879383</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16640,7 +16262,7 @@
         <v>9170866.918179384</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16706,7 +16328,7 @@
         <v>9154894.861379383</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16739,7 +16361,7 @@
         <v>8858749.440779382</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16772,7 +16394,7 @@
         <v>8925769.042479383</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16805,7 +16427,7 @@
         <v>8885343.286079383</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16838,7 +16460,7 @@
         <v>8295785.702079383</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16871,7 +16493,7 @@
         <v>8177339.141879383</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16904,7 +16526,7 @@
         <v>7969282.461679382</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16937,7 +16559,7 @@
         <v>7975492.461679382</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16970,7 +16592,7 @@
         <v>7575115.681679382</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17003,7 +16625,7 @@
         <v>7414435.657779382</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17036,7 +16658,7 @@
         <v>7339729.481479381</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17069,7 +16691,7 @@
         <v>6798150.232179381</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17102,7 +16724,7 @@
         <v>6836568.84757938</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17135,7 +16757,7 @@
         <v>6836568.84757938</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17168,7 +16790,7 @@
         <v>5676272.09157938</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17201,7 +16823,7 @@
         <v>5733655.11477938</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17234,7 +16856,7 @@
         <v>5752516.65067938</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17267,7 +16889,7 @@
         <v>5752516.65067938</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17300,7 +16922,7 @@
         <v>5941923.32887938</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17333,7 +16955,7 @@
         <v>5942923.32887938</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17366,7 +16988,7 @@
         <v>5522291.17107938</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17399,7 +17021,7 @@
         <v>5393118.466679379</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17432,7 +17054,7 @@
         <v>5189443.02247938</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17465,7 +17087,7 @@
         <v>5189443.02247938</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17498,7 +17120,7 @@
         <v>5171404.59587938</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17531,7 +17153,7 @@
         <v>5171404.59587938</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17564,7 +17186,7 @@
         <v>5295461.14617938</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17597,7 +17219,7 @@
         <v>5269683.82427938</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17630,7 +17252,7 @@
         <v>5372569.590314695</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17663,7 +17285,7 @@
         <v>5372569.590314695</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17696,7 +17318,7 @@
         <v>5372369.590314695</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17729,7 +17351,7 @@
         <v>5387369.590314695</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17762,7 +17384,7 @@
         <v>5387369.590314695</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17795,7 +17417,7 @@
         <v>5482013.003950009</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17828,7 +17450,7 @@
         <v>5482013.003950009</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17861,7 +17483,7 @@
         <v>5425872.568450009</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17894,7 +17516,7 @@
         <v>5385446.812050009</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17927,7 +17549,7 @@
         <v>5403093.24385001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17960,7 +17582,7 @@
         <v>5403093.24385001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17993,7 +17615,7 @@
         <v>5403593.24385001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18026,7 +17648,7 @@
         <v>5402105.57585001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18059,7 +17681,7 @@
         <v>5514390.66255001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18092,7 +17714,7 @@
         <v>5514390.66255001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18125,7 +17747,7 @@
         <v>5514390.66255001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20501,14 +20123,10 @@
         <v>1834430.994250011</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J584" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
@@ -20538,19 +20156,11 @@
         <v>1871379.105850011</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J585" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20579,19 +20189,11 @@
         <v>1871379.105850011</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J586" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20620,19 +20222,11 @@
         <v>2067873.773198312</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J587" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20664,14 +20258,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20700,19 +20288,11 @@
         <v>2067865.773198312</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J589" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20744,14 +20324,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20783,14 +20357,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20822,14 +20390,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20861,14 +20423,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20900,14 +20456,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20939,14 +20489,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20978,14 +20522,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21017,14 +20555,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21056,14 +20588,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21095,14 +20621,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21134,14 +20654,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21173,14 +20687,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21212,14 +20720,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21251,14 +20753,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21290,14 +20786,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21329,14 +20819,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21365,19 +20849,11 @@
         <v>1728271.304498312</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J606" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21409,14 +20885,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21448,14 +20918,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21487,14 +20951,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21526,14 +20984,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21565,14 +21017,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21604,14 +21050,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21643,14 +21083,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21679,19 +21113,11 @@
         <v>1782352.805098312</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J614" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21720,19 +21146,11 @@
         <v>1730529.995098311</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J615" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21761,19 +21179,11 @@
         <v>1730529.995098311</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J616" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21802,19 +21212,11 @@
         <v>1736924.333498311</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J617" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21843,19 +21245,11 @@
         <v>1736924.333498311</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="J618" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21887,14 +21281,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21926,14 +21314,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21965,14 +21347,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22004,14 +21380,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22040,19 +21410,11 @@
         <v>1141687.937798311</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="J623" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22081,19 +21443,11 @@
         <v>1364824.428898311</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J624" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22122,19 +21476,11 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J625" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22163,19 +21509,11 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J626" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22204,19 +21542,11 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J627" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22245,19 +21575,11 @@
         <v>1489383.989698312</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J628" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22286,19 +21608,11 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="J629" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22327,19 +21641,11 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J630" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22368,19 +21674,11 @@
         <v>1546714.89146344</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J631" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22409,19 +21707,11 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J632" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22450,19 +21740,11 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J633" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22491,19 +21773,11 @@
         <v>954582.6477634397</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J634" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22532,19 +21806,11 @@
         <v>934563.5341634396</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J635" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22573,19 +21839,11 @@
         <v>934634.5345634397</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J636" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22614,19 +21872,11 @@
         <v>1058069.460698311</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J637" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22655,19 +21905,11 @@
         <v>1103624.460698311</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J638" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22696,19 +21938,11 @@
         <v>1126546.460698311</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J639" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22740,14 +21974,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22776,19 +22004,11 @@
         <v>1286377.503598311</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J641" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22820,14 +22040,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22859,14 +22073,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22898,14 +22106,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22937,14 +22139,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22976,14 +22172,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23015,14 +22205,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23054,14 +22238,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23093,14 +22271,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23132,14 +22304,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23171,14 +22337,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23210,14 +22370,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23246,19 +22400,11 @@
         <v>901027.4774983112</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="J653" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23287,19 +22433,11 @@
         <v>897233.0324983113</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="J654" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23328,19 +22466,11 @@
         <v>892480.0324983113</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="J655" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23369,19 +22499,11 @@
         <v>971884.3411983112</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="J656" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23410,19 +22532,11 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="J657" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23451,19 +22565,11 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J658" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23492,19 +22598,11 @@
         <v>1095087.482798311</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J659" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23533,19 +22631,11 @@
         <v>1095752.583298311</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="J660" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23574,19 +22664,11 @@
         <v>1092503.807398311</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="J661" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23615,19 +22697,11 @@
         <v>915582.1268983111</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J662" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23656,19 +22730,11 @@
         <v>916637.1462983111</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J663" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23697,19 +22763,11 @@
         <v>750807.6635983111</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J664" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23738,19 +22796,11 @@
         <v>750878.7633983111</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J665" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23779,19 +22829,11 @@
         <v>751708.7633983111</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="J666" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23820,19 +22862,11 @@
         <v>643944.6105983111</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J667" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23861,19 +22895,11 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J668" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23902,19 +22928,11 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="J669" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23943,19 +22961,11 @@
         <v>643831.7217983111</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="J670" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23984,19 +22994,11 @@
         <v>657145.8248983111</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="J671" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24025,19 +23027,11 @@
         <v>615074.075998311</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J672" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24066,19 +23060,11 @@
         <v>615074.075998311</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J673" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24107,19 +23093,11 @@
         <v>721494.711098311</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J674" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24148,19 +23126,11 @@
         <v>721494.711098311</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="J675" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24189,19 +23159,11 @@
         <v>721494.711098311</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="J676" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24230,19 +23192,11 @@
         <v>721294.210898311</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="J677" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24271,19 +23225,11 @@
         <v>721294.210898311</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="J678" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24312,19 +23258,11 @@
         <v>688642.6166983109</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="J679" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24353,19 +23291,11 @@
         <v>689342.9868983109</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J680" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24394,19 +23324,11 @@
         <v>692609.4832983109</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J681" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24435,19 +23357,11 @@
         <v>692451.7982983108</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="J682" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24476,19 +23390,11 @@
         <v>525290.2292983108</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="J683" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24517,25 +23423,17 @@
         <v>525150.2292983108</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="J684" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
       <c r="M684" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-21 BackTest ZIL.xlsx
@@ -2563,14 +2563,10 @@
         <v>1233475.791957344</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2600,19 +2596,11 @@
         <v>1233540.791957344</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2629,11 @@
         <v>1202637.564957344</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,19 +2662,11 @@
         <v>1155380.900857345</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2723,19 +2695,11 @@
         <v>1155445.900857345</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2767,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2803,19 +2761,11 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2844,19 +2794,11 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3083,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3122,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3161,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3200,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3317,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3395,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3434,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3473,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3512,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3551,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3590,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3629,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3707,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3746,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3785,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3824,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3863,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3902,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3941,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3980,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4019,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4058,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4097,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4136,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4175,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4214,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4253,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4292,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4331,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4370,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4448,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4487,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4526,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4565,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4682,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4838,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5033,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5228,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5345,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5384,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5423,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5462,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5498,19 +5038,13 @@
         <v>1674791.513257344</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1.049545454545455</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5537,7 +5071,7 @@
         <v>1671578.569557344</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6098,7 +5632,7 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6131,7 +5665,7 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6164,7 +5698,7 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6197,7 +5731,7 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6230,7 +5764,7 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6263,7 +5797,7 @@
         <v>1769502.036857344</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -9365,7 +8899,7 @@
         <v>6215276.245756638</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9398,7 +8932,7 @@
         <v>5844985.359456638</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9431,7 +8965,7 @@
         <v>6014231.847056638</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9464,7 +8998,7 @@
         <v>5820946.936556637</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9497,7 +9031,7 @@
         <v>5792003.834456638</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9530,7 +9064,7 @@
         <v>5788614.679256638</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9563,7 +9097,7 @@
         <v>5644715.992356637</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9629,7 +9163,7 @@
         <v>5644097.843756638</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9662,7 +9196,7 @@
         <v>6088802.156156638</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9695,7 +9229,7 @@
         <v>6132826.253856638</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9728,7 +9262,7 @@
         <v>6006228.212456637</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9761,7 +9295,7 @@
         <v>6191500.425656637</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9794,7 +9328,7 @@
         <v>6191500.425656637</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9827,7 +9361,7 @@
         <v>6168330.312456638</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9926,7 +9460,7 @@
         <v>6157201.961614454</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10124,7 +9658,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10157,7 +9691,7 @@
         <v>6073505.976414454</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10190,7 +9724,7 @@
         <v>5720684.045014454</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10223,7 +9757,7 @@
         <v>5574675.291014454</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -13094,7 +12628,7 @@
         <v>7454407.188821443</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13193,7 +12727,7 @@
         <v>8965033.861182099</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13226,7 +12760,7 @@
         <v>8560946.734082099</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13259,7 +12793,7 @@
         <v>8596072.356082099</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13292,7 +12826,7 @@
         <v>8585407.244182099</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13358,7 +12892,7 @@
         <v>8438451.342882099</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13424,7 +12958,7 @@
         <v>7337294.117882099</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13457,7 +12991,7 @@
         <v>7332665.417982099</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13622,7 +13156,7 @@
         <v>7046638.867882099</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13754,7 +13288,7 @@
         <v>7142438.0018821</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13853,7 +13387,7 @@
         <v>7142288.0336821</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13886,7 +13420,7 @@
         <v>7197036.4336821</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15635,7 +15169,7 @@
         <v>8818411.559679383</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15767,7 +15301,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15965,7 +15499,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15998,7 +15532,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16229,7 +15763,7 @@
         <v>8926673.186879383</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16295,7 +15829,7 @@
         <v>9161993.435779383</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -21476,10 +21010,14 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J625" t="n">
+        <v>7.7</v>
+      </c>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
@@ -21509,11 +21047,19 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J626" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21542,11 +21088,19 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J627" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21575,10 +21129,14 @@
         <v>1489383.989698312</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J628" t="n">
+        <v>7.71</v>
+      </c>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
@@ -21608,11 +21166,19 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J629" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21641,11 +21207,19 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J630" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21674,11 +21248,19 @@
         <v>1546714.89146344</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J631" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21707,11 +21289,19 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J632" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21740,11 +21330,19 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J633" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21773,11 +21371,19 @@
         <v>954582.6477634397</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J634" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21806,11 +21412,19 @@
         <v>934563.5341634396</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J635" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21839,11 +21453,19 @@
         <v>934634.5345634397</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J636" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21872,11 +21494,19 @@
         <v>1058069.460698311</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J637" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21905,11 +21535,19 @@
         <v>1103624.460698311</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J638" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21941,8 +21579,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21974,8 +21618,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22007,8 +21657,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22040,8 +21696,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22073,8 +21735,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22106,8 +21774,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22139,8 +21813,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22172,8 +21852,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22205,8 +21891,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22238,8 +21930,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22271,8 +21969,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22304,8 +22008,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22337,8 +22047,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22370,8 +22086,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22400,11 +22122,19 @@
         <v>901027.4774983112</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J653" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22433,11 +22163,19 @@
         <v>897233.0324983113</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="J654" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22466,11 +22204,19 @@
         <v>892480.0324983113</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="J655" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22499,11 +22245,19 @@
         <v>971884.3411983112</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="J656" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22532,11 +22286,19 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="J657" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22565,11 +22327,19 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J658" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22598,11 +22368,19 @@
         <v>1095087.482798311</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J659" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22631,11 +22409,19 @@
         <v>1095752.583298311</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="J660" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22664,11 +22450,19 @@
         <v>1092503.807398311</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J661" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22697,11 +22491,19 @@
         <v>915582.1268983111</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J662" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22730,11 +22532,19 @@
         <v>916637.1462983111</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J663" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22763,11 +22573,19 @@
         <v>750807.6635983111</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J664" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22796,11 +22614,19 @@
         <v>750878.7633983111</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J665" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22829,11 +22655,19 @@
         <v>751708.7633983111</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="J666" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22862,11 +22696,19 @@
         <v>643944.6105983111</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J667" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22895,11 +22737,19 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J668" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22928,11 +22778,19 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="J669" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22961,11 +22819,19 @@
         <v>643831.7217983111</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="J670" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22994,11 +22860,19 @@
         <v>657145.8248983111</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J671" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23027,11 +22901,19 @@
         <v>615074.075998311</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="J672" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23060,11 +22942,19 @@
         <v>615074.075998311</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J673" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23093,11 +22983,19 @@
         <v>721494.711098311</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J674" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23126,11 +23024,19 @@
         <v>721494.711098311</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J675" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23159,11 +23065,19 @@
         <v>721494.711098311</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J676" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23192,11 +23106,19 @@
         <v>721294.210898311</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J677" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23225,11 +23147,19 @@
         <v>721294.210898311</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J678" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23258,11 +23188,19 @@
         <v>688642.6166983109</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J679" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23291,11 +23229,19 @@
         <v>689342.9868983109</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J680" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23324,11 +23270,19 @@
         <v>692609.4832983109</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J681" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23357,11 +23311,19 @@
         <v>692451.7982983108</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J682" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23390,11 +23352,19 @@
         <v>525290.2292983108</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J683" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23423,11 +23393,19 @@
         <v>525150.2292983108</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J684" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
